--- a/Story/Characters/Notes/Characters.xlsx
+++ b/Story/Characters/Notes/Characters.xlsx
@@ -315,10 +315,10 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="8.67"/>
